--- a/biology/Zoologie/Heliconius_telesiphe/Heliconius_telesiphe.xlsx
+++ b/biology/Zoologie/Heliconius_telesiphe/Heliconius_telesiphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius telesiphe est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,15 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius telesiphe a été décrit par Doubleday en 1847 sous le nom initial d' Heliconia telesiphe[1].
-Sous-espèces
-Heliconius telesiphe telesiphe; présent en Bolivie.
-Heliconius telesiphe cretacea Neustetter, 1916; présent en Guyane et au Pérou[2].
-Heliconius telesiphe sotericus Salvin, 1871; présent en Équateur et au Pérou[1].
-Nom vernaculaire
-Heliconius telesiphe se nomme Telesiphe Longwing en anglais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius telesiphe a été décrit par Doubleday en 1847 sous le nom initial d' Heliconia telesiphe.
 </t>
         </is>
       </c>
@@ -545,110 +553,231 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius telesiphe telesiphe; présent en Bolivie.
+Heliconius telesiphe cretacea Neustetter, 1916; présent en Guyane et au Pérou.
+Heliconius telesiphe sotericus Salvin, 1871; présent en Équateur et au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius telesiphe se nomme Telesiphe Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius telesiphe ressemble à Podotricha telesiphe (Mimétisme Müllerien)[4]. C'est un grand papillon d'une envergure de 65 mm à 80 mm au corps fin et aux ailes antérieures allongées à bord interne concave. Le mâle et la femelle sont identiques[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius telesiphe ressemble à Podotricha telesiphe (Mimétisme Müllerien). C'est un grand papillon d'une envergure de 65 mm à 80 mm au corps fin et aux ailes antérieures allongées à bord interne concave. Le mâle et la femelle sont identiques.
 Le dessus est de couleur marron avec aux ailes antérieures une bande orange à rouge irrégulière séparant l'apex marron du reste de l'aile, une flaque orange au centre de l'aile et aux ailes postérieures une bande blanche ou jaune du bord interne dans l'aire basale vers l'apex.
 Le revers est marron plus clair avec la même ornementation.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_telesiphe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Plectostemma (Passifloraceae)[4].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Plectostemma (Passifloraceae).
 Sur les autres projets Wikimedia :
 Heliconius telesiphe, sur Wikimedia CommonsHeliconius telesiphe, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_telesiphe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius telesiphe est présent en Colombie, en Bolivie, en Équateur, au Pérou et en Guyane[1],[5],[2].
-Biotope
-Heliconius telesiphe réside dans la forêt humide entre 600 m et 2 500 m d'altitude[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius telesiphe est présent en Colombie, en Bolivie, en Équateur, au Pérou et en Guyane.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heliconius_telesiphe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius telesiphe réside dans la forêt humide entre 600 m et 2 500 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_telesiphe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
